--- a/rv_data_schemer.xlsx
+++ b/rv_data_schemer.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="13995" windowHeight="6720"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="13995" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Classes" sheetId="1" r:id="rId1"/>
+    <sheet name="SQLITE" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
-  <si>
-    <t>BaseDataItem</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -205,27 +201,215 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>NEGATIVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUSY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HIGHT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>NOT_HOME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NEGATIVE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BUSY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NONE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LOW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HIGHT</t>
+  </si>
+  <si>
+    <t>MIDDLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isDeleted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>magazine_category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WATCHTOWER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STUDY_WATCHTOWER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWAKE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIBLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOOK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRACT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAGAZINE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEB_LINK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHOW_VIDEO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OTHER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>latidude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>person_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>place_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひとりの人に複数の場所を紐づけるテーブル</t>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>place_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>visit_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>person_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>person_place_id_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>visit_detail_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>placement_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publication_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>note_comp_item_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>visit_detail_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>general_columns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>visit_tag_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -272,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +465,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,269 +788,287 @@
     <col min="5" max="5" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
         <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -874,14 +1082,416 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="4" max="6" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" copies="2" r:id="rId1"/>
 </worksheet>
 </file>
 
